--- a/画面イメージ図.xlsx
+++ b/画面イメージ図.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kiyonari\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tashi\source\repos\matching_practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{439060D3-564B-4C22-8F7B-6410FBB1059F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7710" tabRatio="941"/>
+    <workbookView xWindow="3576" yWindow="780" windowWidth="11148" windowHeight="11580" tabRatio="941" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ログイン画面" sheetId="1" r:id="rId1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
   <si>
     <t>メール画面</t>
     <rPh sb="3" eb="5">
@@ -350,12 +351,84 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フラグ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>田代</t>
+    <rPh sb="0" eb="2">
+      <t>タシロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0'無効'</t>
+    <rPh sb="2" eb="4">
+      <t>ムコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1'有効'</t>
+    <rPh sb="2" eb="4">
+      <t>ユウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※既に応募済みの求人に関しては、チェックボックスを非活性にする。</t>
+    <rPh sb="1" eb="2">
+      <t>スデ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>オウボズ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キュウジン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="25" eb="28">
+      <t>ヒカッセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>企業情報ボタン押下</t>
+    <rPh sb="0" eb="4">
+      <t>キギョウジョウホウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>企業情報画面へ</t>
+    <rPh sb="0" eb="6">
+      <t>キギョウジョウホウガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -384,12 +457,102 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -398,11 +561,29 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -439,7 +620,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -480,7 +667,72 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+            <a:ea typeface="ＭＳ ゴシック" panose="020B0609070205080204" pitchFamily="49" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　　　　ユーザー：</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　　　　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>PASSWORD</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>：</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -501,7 +753,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="角丸四角形 2"/>
+        <xdr:cNvPr id="3" name="角丸四角形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -558,7 +816,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="角丸四角形 3"/>
+        <xdr:cNvPr id="4" name="角丸四角形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -609,8 +873,8 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>6259</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
@@ -620,13 +884,19 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1600200" y="619125"/>
-          <a:ext cx="3676649" cy="4912518"/>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1447800" y="496116"/>
+          <a:ext cx="3295649" cy="3832656"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -669,26 +939,32 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>40822</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>113961</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>163286</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>125866</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="右矢印 2"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6164036" y="3583782"/>
-          <a:ext cx="2843893" cy="420120"/>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="右矢印 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5486399" y="2122715"/>
+          <a:ext cx="2438401" cy="326571"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -723,26 +999,32 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>625929</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1089</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>108857</xdr:rowOff>
+      <xdr:rowOff>108858</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>149679</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>122463</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="角丸四角形 5"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1986643" y="1537607"/>
-          <a:ext cx="2925536" cy="3687535"/>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>119744</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="角丸四角形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1829889" y="1251858"/>
+          <a:ext cx="2586990" cy="1153886"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -799,7 +1081,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="角丸四角形 7"/>
+        <xdr:cNvPr id="8" name="角丸四角形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -866,7 +1154,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="正方形/長方形 8"/>
+        <xdr:cNvPr id="9" name="正方形/長方形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -928,7 +1222,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="正方形/長方形 11"/>
+        <xdr:cNvPr id="12" name="正方形/長方形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -963,7 +1263,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>企業情報</a:t>
+            <a:t>戻る</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -974,25 +1274,31 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>236766</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>176892</xdr:rowOff>
+      <xdr:colOff>269424</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>27757</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>435427</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>136071</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="角丸四角形 12"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2277837" y="4667249"/>
-          <a:ext cx="2239733" cy="367393"/>
+      <xdr:colOff>468085</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>157842</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="角丸四角形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2098224" y="1987186"/>
+          <a:ext cx="2027461" cy="293370"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1053,7 +1359,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="右矢印 13"/>
+        <xdr:cNvPr id="14" name="右矢印 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1096,24 +1408,30 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>111579</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>166007</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>2720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>315686</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>108857</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="角丸四角形 14"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9636579" y="778328"/>
-          <a:ext cx="2925536" cy="4024993"/>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>163284</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="角丸四角形 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8645979" y="655863"/>
+          <a:ext cx="2642507" cy="3099707"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1178,7 +1496,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="角丸四角形 15"/>
+        <xdr:cNvPr id="16" name="角丸四角形 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1230,6 +1554,191 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>544286</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38916</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>138793</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>155939</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="角丸四角形 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{145C27F1-39EF-458D-B891-114C7AD2595E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1763486" y="2488202"/>
+          <a:ext cx="2642507" cy="1423308"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>企業情報</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>43544</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>147774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>70418</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>135867</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="正方形/長方形 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0225D2D4-D509-446D-8D50-B656A66F23CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2481944" y="3413488"/>
+          <a:ext cx="1246074" cy="314665"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>企業情報</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>601434</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>11906</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="右矢印 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8655F34-ED29-4A0A-9106-DBEF2355B134}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5486400" y="3102429"/>
+          <a:ext cx="1211034" cy="338477"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1250,7 +1759,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1312,7 +1827,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="片側の 2 つの角を丸めた四角形 2"/>
+        <xdr:cNvPr id="3" name="片側の 2 つの角を丸めた四角形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1369,7 +1890,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="角丸四角形 3"/>
+        <xdr:cNvPr id="4" name="角丸四角形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1428,7 +1955,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="角丸四角形 4"/>
+        <xdr:cNvPr id="5" name="角丸四角形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1487,7 +2020,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="角丸四角形 5"/>
+        <xdr:cNvPr id="6" name="角丸四角形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1546,7 +2085,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="角丸四角形 6"/>
+        <xdr:cNvPr id="7" name="角丸四角形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1605,7 +2150,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="正方形/長方形 7"/>
+        <xdr:cNvPr id="8" name="正方形/長方形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1640,7 +2191,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ホーム画面へ</a:t>
+            <a:t>戻る</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -1663,7 +2214,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="右矢印 8"/>
+        <xdr:cNvPr id="9" name="右矢印 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1717,7 +2274,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="正方形/長方形 9"/>
+        <xdr:cNvPr id="10" name="正方形/長方形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1779,7 +2342,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="角丸四角形 10"/>
+        <xdr:cNvPr id="11" name="角丸四角形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1835,7 +2404,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="角丸四角形 11"/>
+        <xdr:cNvPr id="12" name="角丸四角形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1902,7 +2477,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="角丸四角形 12"/>
+        <xdr:cNvPr id="13" name="角丸四角形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1954,6 +2535,70 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>21772</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>529315</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>27827</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="正方形/長方形 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EF2BC84-954D-4A33-B7F8-27BE48DEE2AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3048000" y="838201"/>
+          <a:ext cx="1138915" cy="332626"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ホーム画面へ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1974,7 +2619,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2036,7 +2687,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="角丸四角形 3"/>
+        <xdr:cNvPr id="4" name="角丸四角形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2093,7 +2750,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2155,7 +2818,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="正方形/長方形 5"/>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2221,7 +2890,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="右矢印 6"/>
+        <xdr:cNvPr id="7" name="右矢印 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2275,7 +2950,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="正方形/長方形 7"/>
+        <xdr:cNvPr id="8" name="正方形/長方形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2336,7 +3017,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="右矢印 8"/>
+        <xdr:cNvPr id="9" name="右矢印 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2390,7 +3077,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="正方形/長方形 9"/>
+        <xdr:cNvPr id="10" name="正方形/長方形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2452,7 +3145,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="正方形/長方形 10"/>
+        <xdr:cNvPr id="11" name="正方形/長方形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2505,7 +3204,13 @@
     <xdr:ext cx="1415772" cy="492443"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="テキスト ボックス 11"/>
+        <xdr:cNvPr id="12" name="テキスト ボックス 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2567,7 +3272,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2629,7 +3340,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2687,7 +3404,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="右矢印 5"/>
+        <xdr:cNvPr id="6" name="右矢印 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2741,7 +3464,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="正方形/長方形 13"/>
+        <xdr:cNvPr id="14" name="正方形/長方形 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2799,7 +3528,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="正方形/長方形 14"/>
+        <xdr:cNvPr id="15" name="正方形/長方形 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2857,7 +3592,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="正方形/長方形 15"/>
+        <xdr:cNvPr id="16" name="正方形/長方形 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2915,7 +3656,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="片側の 2 つの角を丸めた四角形 16"/>
+        <xdr:cNvPr id="17" name="片側の 2 つの角を丸めた四角形 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2972,7 +3719,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="右矢印 19"/>
+        <xdr:cNvPr id="20" name="右矢印 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3026,7 +3779,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="角丸四角形 21"/>
+        <xdr:cNvPr id="22" name="角丸四角形 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3085,7 +3844,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="角丸四角形 22"/>
+        <xdr:cNvPr id="23" name="角丸四角形 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3144,7 +3909,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="角丸四角形 23"/>
+        <xdr:cNvPr id="24" name="角丸四角形 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3203,7 +3974,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="角丸四角形 24"/>
+        <xdr:cNvPr id="25" name="角丸四角形 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3262,7 +4039,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="右矢印 25"/>
+        <xdr:cNvPr id="26" name="右矢印 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3316,7 +4099,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="正方形/長方形 26"/>
+        <xdr:cNvPr id="27" name="正方形/長方形 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3378,7 +4167,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="正方形/長方形 29"/>
+        <xdr:cNvPr id="30" name="正方形/長方形 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3436,7 +4231,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="正方形/長方形 30"/>
+        <xdr:cNvPr id="31" name="正方形/長方形 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3494,7 +4295,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="片側の 2 つの角を丸めた四角形 31"/>
+        <xdr:cNvPr id="32" name="片側の 2 つの角を丸めた四角形 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000020000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3551,7 +4358,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="角丸四角形 32"/>
+        <xdr:cNvPr id="33" name="角丸四角形 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3607,7 +4420,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="角丸四角形 33"/>
+        <xdr:cNvPr id="34" name="角丸四角形 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000022000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3663,7 +4482,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="角丸四角形 34"/>
+        <xdr:cNvPr id="35" name="角丸四角形 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3719,7 +4544,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="角丸四角形 35"/>
+        <xdr:cNvPr id="36" name="角丸四角形 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000024000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3775,7 +4606,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="右矢印 36"/>
+        <xdr:cNvPr id="37" name="右矢印 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000025000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3829,7 +4666,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="右矢印 37"/>
+        <xdr:cNvPr id="38" name="右矢印 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000026000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3883,7 +4726,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="39" name="右矢印 38"/>
+        <xdr:cNvPr id="39" name="右矢印 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000027000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3937,7 +4786,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="角丸四角形 39"/>
+        <xdr:cNvPr id="40" name="角丸四角形 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000028000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3996,7 +4851,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="正方形/長方形 40"/>
+        <xdr:cNvPr id="41" name="正方形/長方形 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000029000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4053,12 +4914,18 @@
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>163287</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>190501</xdr:rowOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>4355</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="47" name="直線コネクタ 46"/>
+        <xdr:cNvPr id="47" name="直線コネクタ 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4107,7 +4974,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="48" name="直線コネクタ 47"/>
+        <xdr:cNvPr id="48" name="直線コネクタ 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000030000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4156,7 +5029,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="53" name="正方形/長方形 52"/>
+        <xdr:cNvPr id="53" name="正方形/長方形 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000035000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4218,7 +5097,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="56" name="正方形/長方形 55"/>
+        <xdr:cNvPr id="56" name="正方形/長方形 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000038000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4280,7 +5165,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="59" name="正方形/長方形 58"/>
+        <xdr:cNvPr id="59" name="正方形/長方形 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4342,7 +5233,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="60" name="直線コネクタ 59"/>
+        <xdr:cNvPr id="60" name="直線コネクタ 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4391,7 +5288,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="61" name="直線コネクタ 60"/>
+        <xdr:cNvPr id="61" name="直線コネクタ 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4445,7 +5348,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4507,7 +5416,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4565,7 +5480,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="正方形/長方形 5"/>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4623,7 +5544,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="正方形/長方形 7"/>
+        <xdr:cNvPr id="8" name="正方形/長方形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4680,7 +5607,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="右矢印 8"/>
+        <xdr:cNvPr id="9" name="右矢印 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4734,7 +5667,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="正方形/長方形 9"/>
+        <xdr:cNvPr id="10" name="正方形/長方形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4796,7 +5735,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="正方形/長方形 10"/>
+        <xdr:cNvPr id="11" name="正方形/長方形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4833,6 +5778,58 @@
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>プロフィール情報表示</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　・名前：</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　・年齢：</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　・スキル：</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　・希望職種：</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　・経歴：</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>...etc</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -4853,7 +5850,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="角丸四角形 14"/>
+        <xdr:cNvPr id="15" name="角丸四角形 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4920,7 +5923,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="角丸四角形 15"/>
+        <xdr:cNvPr id="16" name="角丸四角形 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4992,7 +6001,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5054,7 +6069,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5112,7 +6133,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="右矢印 3"/>
+        <xdr:cNvPr id="4" name="右矢印 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5166,7 +6193,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5224,7 +6257,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="正方形/長方形 5"/>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5282,7 +6321,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="正方形/長方形 6"/>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5340,7 +6385,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="片側の 2 つの角を丸めた四角形 7"/>
+        <xdr:cNvPr id="8" name="片側の 2 つの角を丸めた四角形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5410,7 +6461,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="角丸四角形 9"/>
+        <xdr:cNvPr id="10" name="角丸四角形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5473,7 +6530,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="角丸四角形 10"/>
+        <xdr:cNvPr id="11" name="角丸四角形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5536,7 +6599,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="角丸四角形 11"/>
+        <xdr:cNvPr id="12" name="角丸四角形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5603,7 +6672,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="角丸四角形 12"/>
+        <xdr:cNvPr id="13" name="角丸四角形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5670,7 +6745,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="角丸四角形 13"/>
+        <xdr:cNvPr id="14" name="角丸四角形 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5737,7 +6818,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="角丸四角形 14"/>
+        <xdr:cNvPr id="15" name="角丸四角形 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5809,7 +6896,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5871,7 +6964,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="右矢印 3"/>
+        <xdr:cNvPr id="4" name="右矢印 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5925,7 +7024,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="正方形/長方形 5"/>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5983,7 +7088,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="正方形/長方形 6"/>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6041,7 +7152,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="角丸四角形 8"/>
+        <xdr:cNvPr id="9" name="角丸四角形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6104,7 +7221,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="角丸四角形 11"/>
+        <xdr:cNvPr id="12" name="角丸四角形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6171,7 +7294,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="角丸四角形 15"/>
+        <xdr:cNvPr id="16" name="角丸四角形 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6238,7 +7367,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="正方形/長方形 16"/>
+        <xdr:cNvPr id="17" name="正方形/長方形 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6295,7 +7430,13 @@
     <xdr:ext cx="1415772" cy="492443"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="テキスト ボックス 17"/>
+        <xdr:cNvPr id="18" name="テキスト ボックス 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6352,7 +7493,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="正方形/長方形 18"/>
+        <xdr:cNvPr id="19" name="正方形/長方形 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6415,7 +7562,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6477,7 +7630,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="正方形/長方形 14"/>
+        <xdr:cNvPr id="15" name="正方形/長方形 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6529,7 +7688,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="円/楕円 15"/>
+        <xdr:cNvPr id="16" name="円/楕円 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6583,7 +7748,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="円/楕円 16"/>
+        <xdr:cNvPr id="17" name="円/楕円 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6637,7 +7808,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="円/楕円 17"/>
+        <xdr:cNvPr id="18" name="円/楕円 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6691,7 +7868,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="円/楕円 18"/>
+        <xdr:cNvPr id="19" name="円/楕円 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6745,7 +7928,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="円/楕円 19"/>
+        <xdr:cNvPr id="20" name="円/楕円 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6799,7 +7988,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="円/楕円 20"/>
+        <xdr:cNvPr id="21" name="円/楕円 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6853,7 +8048,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="角丸四角形吹き出し 21"/>
+        <xdr:cNvPr id="22" name="角丸四角形吹き出し 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6911,7 +8112,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="角丸四角形吹き出し 22"/>
+        <xdr:cNvPr id="23" name="角丸四角形吹き出し 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6969,7 +8176,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="角丸四角形吹き出し 23"/>
+        <xdr:cNvPr id="24" name="角丸四角形吹き出し 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7027,7 +8240,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="角丸四角形吹き出し 24"/>
+        <xdr:cNvPr id="25" name="角丸四角形吹き出し 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7085,7 +8304,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="角丸四角形吹き出し 25"/>
+        <xdr:cNvPr id="26" name="角丸四角形吹き出し 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7143,7 +8368,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="角丸四角形吹き出し 26"/>
+        <xdr:cNvPr id="27" name="角丸四角形吹き出し 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7201,7 +8432,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="正方形/長方形 27"/>
+        <xdr:cNvPr id="28" name="正方形/長方形 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7255,7 +8492,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="正方形/長方形 28"/>
+        <xdr:cNvPr id="29" name="正方形/長方形 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7317,7 +8560,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7379,7 +8628,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7437,7 +8692,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7495,7 +8756,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7552,7 +8819,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="右矢印 5"/>
+        <xdr:cNvPr id="6" name="右矢印 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7606,7 +8879,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="正方形/長方形 6"/>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7668,7 +8947,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="正方形/長方形 7"/>
+        <xdr:cNvPr id="8" name="正方形/長方形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7725,7 +9010,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="角丸四角形 8"/>
+        <xdr:cNvPr id="9" name="角丸四角形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7792,7 +9083,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="角丸四角形 9"/>
+        <xdr:cNvPr id="10" name="角丸四角形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7864,7 +9161,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="正方形/長方形 6"/>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7926,7 +9229,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="正方形/長方形 7"/>
+        <xdr:cNvPr id="8" name="正方形/長方形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7983,7 +9292,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="角丸四角形 8"/>
+        <xdr:cNvPr id="9" name="角丸四角形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8055,7 +9370,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="角丸四角形 9"/>
+        <xdr:cNvPr id="10" name="角丸四角形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8372,12 +9693,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="50" workbookViewId="0"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="50" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8387,26 +9710,38 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="J7:L17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="J7:L21"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="50" workbookViewId="0"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="50" workbookViewId="0">
+      <selection activeCell="P40" sqref="P40"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <sheetData>
-    <row r="7" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="10:12">
       <c r="J7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="10:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="10:12">
       <c r="L9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J17" t="s">
+    <row r="13" spans="10:12">
+      <c r="J13" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="10:12">
+      <c r="J19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="10:12">
+      <c r="L21" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -8418,28 +9753,33 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K39" sqref="K39"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D3:T17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="C3:U31"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="50" workbookViewId="0"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="50" workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <sheetData>
-    <row r="3" spans="4:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="4:20">
       <c r="D3" t="s">
         <v>1</v>
       </c>
@@ -8450,9 +9790,52 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="18:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:21">
       <c r="R17" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" ht="13.8" thickBot="1"/>
+    <row r="29" spans="3:21">
+      <c r="C29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="3">
+        <v>1</v>
+      </c>
+      <c r="T29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="U29" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21">
+      <c r="C30" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="T30" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="U30" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" ht="13.8" thickBot="1">
+      <c r="C31" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="T31" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="U31" s="7" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -8464,88 +9847,95 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:M52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="C2:M57"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="50" workbookViewId="0"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="50" workbookViewId="0">
+      <selection activeCell="N32" sqref="N32"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <sheetData>
-    <row r="2" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:13">
       <c r="C2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="7" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:13">
       <c r="J7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:13">
       <c r="M9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:13">
       <c r="J14" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:13">
       <c r="J15" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:13">
       <c r="M17" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:13">
       <c r="J22" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:13">
       <c r="M24" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:13">
       <c r="C30" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D30" s="1"/>
     </row>
-    <row r="35" spans="10:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="10:13">
       <c r="J35" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="10:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="10:13">
       <c r="M37" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="10:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="10:13">
       <c r="J42" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="10:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="10:13">
       <c r="M44" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="50" spans="10:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:13">
       <c r="J50" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="10:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:13">
       <c r="M52" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="57" spans="3:13">
+      <c r="C57" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -8557,14 +9947,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="I13"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <sheetData>
-    <row r="13" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="9:9">
       <c r="I13" t="s">
         <v>12</v>
       </c>
@@ -8577,24 +9969,26 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="J17:M22"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="50" workbookViewId="0"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="50" workbookViewId="0">
+      <selection activeCell="C27" sqref="C3:H27"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <sheetData>
-    <row r="17" spans="10:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="10:13">
       <c r="J17" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="10:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="10:13">
       <c r="M19" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="10:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="10:13">
       <c r="J22" t="s">
         <v>9</v>
       </c>
@@ -8608,19 +10002,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="J17:J21"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="50" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="50" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <sheetData>
-    <row r="17" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="10:10">
       <c r="J17" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="10:10">
       <c r="J21" t="s">
         <v>9</v>
       </c>
@@ -8634,12 +10028,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="50" workbookViewId="0"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="50" workbookViewId="0">
+      <selection activeCell="N38" sqref="N38"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8649,14 +10045,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="I13"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N36" sqref="N36"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <sheetData>
-    <row r="13" spans="9:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="9:9">
       <c r="I13" t="s">
         <v>23</v>
       </c>
@@ -8669,12 +10067,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/画面イメージ図.xlsx
+++ b/画面イメージ図.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tashi\source\repos\matching_practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{439060D3-564B-4C22-8F7B-6410FBB1059F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0980A4A3-C49F-4BF6-A990-FEB48428F8FC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3576" yWindow="780" windowWidth="11148" windowHeight="11580" tabRatio="941" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="941" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ログイン画面" sheetId="1" r:id="rId1"/>
@@ -864,6 +864,245 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>513448</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>120333</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D3972CA-FA53-49D6-A999-6436A2E00A6F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7315200" y="489857"/>
+          <a:ext cx="7219048" cy="6161905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>522362</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>1619</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7105024E-7FF0-4D3B-B784-50A0C645FE99}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7315200" y="7347857"/>
+          <a:ext cx="12104762" cy="8819048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>43543</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>65314</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="矢印: 下 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B84CA2DC-3BD4-46FA-BF89-16B3D523C754}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10406743" y="6760028"/>
+          <a:ext cx="1175657" cy="478972"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>87085</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>54430</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8256584E-96D5-480A-BD25-00296A585C39}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11734800" y="6683829"/>
+          <a:ext cx="3592285" cy="555172"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>テキストボックスやボタンの位置を</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>割合で指定してるので、レスポンシブな画面を再現！！</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -9696,9 +9935,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="50" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <sheetData/>
@@ -10005,7 +10242,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="J17:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="50" workbookViewId="0"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="50" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <sheetData>
